--- a/documentation/3_1_Modele_Journal - Maxime.xlsx
+++ b/documentation/3_1_Modele_Journal - Maxime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BardyM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximebardy/Github/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A318A167-0420-4B84-A3BD-13D2F19D0C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA93322-21F6-2045-B3D3-525060D2AB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_BARDY_MAXIME" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t xml:space="preserve">Projet : Exploration sécurisée de galeries spéléologiques                            </t>
   </si>
@@ -57,9 +57,6 @@
     <t>[H.h]</t>
   </si>
   <si>
-    <t>Daily Scrum + organisation de l’équipe (répartition des rôles, objectifs de la journée).</t>
-  </si>
-  <si>
     <t>Analyse du besoin + définition du périmètre (exploration sécurisée, contraintes module).</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Total &gt;</t>
   </si>
   <si>
-    <t>Daily Scrum (point avancement + blocages).</t>
-  </si>
-  <si>
     <t>Corrections et finalisation du cahier des charges + mise en forme.</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>Tests manette sur PC + ajustements (poll loop, stabilité).</t>
   </si>
   <si>
-    <t>Daily Scrum (avec l’équipe).</t>
-  </si>
-  <si>
     <t>Début intégration manette → rover (boucle téléop, modes vitesse).</t>
   </si>
   <si>
@@ -136,6 +127,54 @@
   </si>
   <si>
     <t>J’ai terminé la partie manette pour qu’elle soit stable, puis j’ai repris le début de ce que Cyril et Romain avaient fait pour fusionner les modules et que tout fonctionne ensemble. Au final, je suis content du résultat : la manette pilote bien le rover (moteurs Phidget), avec l’E-STOP sur B et les vibrations d’alerte (batterie faible / perte de liaison). Franchement j’ai bien aimé l’ambiance, je trouve qu’on a tous bien bossé et qu’on commence à avoir un vrai système qui ressemble à quelque chose.</t>
+  </si>
+  <si>
+    <t>Rendez-vous client / encadrant : démo du rover + retours + points à améliorer/valider.</t>
+  </si>
+  <si>
+    <t>Debug rover : identification + correction d’un bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rédaction du PV de séance </t>
+  </si>
+  <si>
+    <t>Daily Scrum (point avancement + objectifs de reprise après la pause)</t>
+  </si>
+  <si>
+    <t>Reprise du projet relecture rapide des docs et du backlog pour se remettre dedans.</t>
+  </si>
+  <si>
+    <t>Mise à jour / vérification du backlog</t>
+  </si>
+  <si>
+    <t>Reprise du projet relancer l'app ce remettre dans le code refaire tout fonctionner</t>
+  </si>
+  <si>
+    <t>Documentation du projet / vérification et ajout de ma part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Scrum </t>
+  </si>
+  <si>
+    <t>Daily Scrum</t>
+  </si>
+  <si>
+    <t>Analyse et conception pour le fil d'arian</t>
+  </si>
+  <si>
+    <t>V1 du fil d'arian</t>
+  </si>
+  <si>
+    <t>Documentation pour le fil d'arian</t>
+  </si>
+  <si>
+    <t>Aujourd'hui notre Daily Scrum était vraiment bien et mieux que les autres parce que en ayant corriger les taches sur le kanban hier j'ai vue que l'équipe arrivait mieux à mettre un nom sur ce qu'elle avait fait et était plus au clair avec le projet alors je vois personnelement une grosse amélioration de tout le monde je suis donc assez content de voir que nous avons eu un genre de petit déclics même au niveau de notre Daily Scrum qui était beaucoup plus utile et donc bien que les derniers fois.</t>
+  </si>
+  <si>
+    <t>Pas ma meilleur journée j'étais très fatiguer donc pas des plus productif mais je crois qu'aujourd'hui nous avons fais un gros pas en avant en refaisant ces tache dans le backlog j'ai vraiment l'impression que ça à aidé tout le monde.</t>
+  </si>
+  <si>
+    <t>Petit problème avec le rover lors de la présentation pour le client mais à par ça la journée à été riche pour le developpement nous avons fais de grosse avancer avec le rover ! Je suis donc vraiment content de mon travail et du travail de l'équipe</t>
   </si>
 </sst>
 </file>
@@ -211,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -409,11 +448,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -462,6 +521,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -473,91 +539,111 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1170,755 +1256,789 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49:C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="217" width="9.140625" style="1" customWidth="1"/>
-    <col min="218" max="218" width="11.5703125" style="1" customWidth="1"/>
-    <col min="219" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="31.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="217" width="9.1640625" style="1" customWidth="1"/>
+    <col min="218" max="218" width="11.5" style="1" customWidth="1"/>
+    <col min="219" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:4" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
+    <row r="5" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18">
         <v>45992</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="32"/>
+      <c r="B6" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="36"/>
       <c r="D6" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="16"/>
       <c r="D7" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="19"/>
+      <c r="B8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="8">
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="19"/>
+      <c r="B12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="39">
         <v>45993</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="19"/>
+      <c r="B13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="24"/>
       <c r="D13" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="14"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="19"/>
+      <c r="B14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="16"/>
       <c r="D14" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="14"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="14"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="16"/>
       <c r="D16" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="14"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D18" s="9">
         <f>SUM(D13:D17)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+    <row r="19" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19"/>
+      <c r="B19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="39">
         <v>45999</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="19"/>
+      <c r="B20" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="24"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="19"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D25" s="9">
         <f>SUM(D20:D24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
+    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="29">
         <v>46000</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="19"/>
+      <c r="B27" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="24"/>
       <c r="D27" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="14"/>
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="37"/>
+      <c r="B28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="16"/>
       <c r="D28" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="14"/>
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="37"/>
+      <c r="B29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="16"/>
       <c r="D29" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="14"/>
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="37"/>
+      <c r="B30" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="16"/>
       <c r="D30" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="14"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="19"/>
+      <c r="B31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="16"/>
       <c r="D31" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="14"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="19"/>
       <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D33" s="9">
         <f>SUM(D27:D32)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-    </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
+    <row r="34" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="30"/>
+      <c r="B34" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+    </row>
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="29">
         <v>46006</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="19"/>
+      <c r="B35" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="24"/>
       <c r="D35" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="14"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="16"/>
       <c r="D36" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="14"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="19"/>
+      <c r="B37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="16"/>
       <c r="D37" s="8">
         <v>2.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="14"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
+      <c r="B38" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="16"/>
       <c r="D38" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="14"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="19"/>
+      <c r="B39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="16"/>
       <c r="D39" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="19"/>
       <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D40" s="9">
         <f>SUM(D35:D39)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="36" t="s">
+    <row r="41" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="30"/>
+      <c r="B41" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="29">
+        <v>46007</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="D42" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="19"/>
+      <c r="B43" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="19"/>
+      <c r="B44" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="19"/>
+      <c r="B45" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="14"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="19"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="19"/>
       <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D47" s="9">
         <f>SUM(D42:D46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
-    </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="30"/>
+      <c r="B48" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="29">
+        <v>46027</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="19"/>
+      <c r="B50" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="19"/>
+      <c r="B51" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="19"/>
+      <c r="B52" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="19"/>
+      <c r="B53" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="19"/>
       <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D54" s="9">
         <f>SUM(D49:D53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-    </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="14"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="30"/>
+      <c r="B55" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="29">
+        <v>46028</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="19"/>
+      <c r="B57" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="19"/>
+      <c r="B58" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="19"/>
+      <c r="B59" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="19"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="8"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="19"/>
       <c r="B61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D61" s="9">
         <f>SUM(D56:D60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="23"/>
-    </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="19"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="30"/>
+      <c r="B62" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
+    </row>
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="39"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="24"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="14"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="19"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="14"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="19"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="14"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="19"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="14"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="19"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="17"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="19"/>
       <c r="B68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D68" s="9">
         <f>SUM(D63:D67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="17"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="14"/>
-    </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="24"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="19"/>
+    <row r="69" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="19"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="16"/>
+    </row>
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="29"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="24"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="17"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="14"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="19"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="14"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="19"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="17"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="14"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="19"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="17"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="14"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="19"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="8"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="17"/>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="19"/>
       <c r="B75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D75" s="9">
         <f>SUM(D70:D74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
-    </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="24"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="19"/>
+    <row r="76" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="30"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="27"/>
+    </row>
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="29"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="24"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="17"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="14"/>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="19"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="16"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="17"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="14"/>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="19"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="16"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="17"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="14"/>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="19"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="16"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="17"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="14"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="19"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="16"/>
       <c r="D81" s="8"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="17"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="19"/>
       <c r="B82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D82" s="9">
         <f>SUM(D77:D81)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
-    </row>
-    <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="30"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="27"/>
+    </row>
+    <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="11"/>
       <c r="B84" s="10"/>
       <c r="C84" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D84" s="12">
         <f>D11+D18+D25+D33+D40+D47+D54+D61+D68+D75+D82</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B60:C60"/>
+  <mergeCells count="78">
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:D19"/>
@@ -1932,30 +2052,55 @@
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11 D27:D33">
     <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Terminé">

--- a/documentation/3_1_Modele_Journal - Maxime.xlsx
+++ b/documentation/3_1_Modele_Journal - Maxime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximebardy/Github/Explorations-de-galeries-speleologiques/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA93322-21F6-2045-B3D3-525060D2AB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2649EDE2-1E79-034F-BAD4-FA143468107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28120" yWindow="4520" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_BARDY_MAXIME" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t xml:space="preserve">Projet : Exploration sécurisée de galeries spéléologiques                            </t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>Petit problème avec le rover lors de la présentation pour le client mais à par ça la journée à été riche pour le developpement nous avons fais de grosse avancer avec le rover ! Je suis donc vraiment content de mon travail et du travail de l'équipe</t>
+  </si>
+  <si>
+    <t>Ajout de nouvelle tâches pour de nouvelle potentiel foncitonnalité</t>
+  </si>
+  <si>
+    <t>Finalisation du projet (correction des dernier bugs)</t>
+  </si>
+  <si>
+    <t>Ajout d'une page de "login" pour le rover</t>
+  </si>
+  <si>
+    <t>Aujourd'hui nous avons simplement bien travailler le projet à réussi à être compléter la documentation aussi. Je suis très content d'avoir ttravailler avec mon équipe il y a eu des doutes pas toujours tout qui à été comme sur des roulette mais nous avons tous beaucoup appris et je finis cette journée en ayant vraiment eu l'impression de nous avoir vue progresser en même temps que le projet</t>
   </si>
 </sst>
 </file>
@@ -521,31 +533,119 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -554,96 +654,8 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1257,9 +1269,9 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49:C49"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1273,93 +1285,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18">
+      <c r="A6" s="43">
         <v>45992</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1372,63 +1384,63 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39">
+      <c r="A13" s="22">
         <v>45993</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1441,43 +1453,43 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39">
+      <c r="A20" s="22">
         <v>45999</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1490,71 +1502,71 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="16"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29">
+      <c r="A27" s="19">
         <v>46000</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="37"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="16"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="37"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="37"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="19"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="16"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="19"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1567,67 +1579,67 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="30"/>
-      <c r="B34" s="25" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="29">
+      <c r="A35" s="19">
         <v>46006</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="19"/>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="16"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="19"/>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="19"/>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="19"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="16"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="19"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
@@ -1640,61 +1652,61 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="30"/>
-      <c r="B41" s="25" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="29">
+      <c r="A42" s="19">
         <v>46007</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="43"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="19"/>
-      <c r="B43" s="40" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="41"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="19"/>
-      <c r="B44" s="40" t="s">
+      <c r="A44" s="20"/>
+      <c r="B44" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="41"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="19"/>
-      <c r="B45" s="44" t="s">
+      <c r="A45" s="20"/>
+      <c r="B45" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="45"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="19"/>
+      <c r="A46" s="20"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="19"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
@@ -1707,28 +1719,28 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="30"/>
-      <c r="B48" s="34" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="29">
+      <c r="A49" s="19">
         <v>46027</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="24"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="19"/>
-      <c r="B50" s="46" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D50" s="8">
@@ -1736,37 +1748,37 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="19"/>
-      <c r="B51" s="17" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="16"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="19"/>
-      <c r="B52" s="17" t="s">
+      <c r="A52" s="20"/>
+      <c r="B52" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="16"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="19"/>
-      <c r="B53" s="17" t="s">
+      <c r="A53" s="20"/>
+      <c r="B53" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="16"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="8">
         <v>3.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="19"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="2" t="s">
         <v>9</v>
       </c>
@@ -1779,63 +1791,63 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="30"/>
-      <c r="B55" s="34" t="s">
+      <c r="A55" s="21"/>
+      <c r="B55" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="26"/>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="29">
+      <c r="A56" s="19">
         <v>46028</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="24"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="19"/>
-      <c r="B57" s="17" t="s">
+      <c r="A57" s="20"/>
+      <c r="B57" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="16"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="19"/>
-      <c r="B58" s="17" t="s">
+      <c r="A58" s="20"/>
+      <c r="B58" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="16"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="19"/>
-      <c r="B59" s="17" t="s">
+      <c r="A59" s="20"/>
+      <c r="B59" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="16"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="19"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="16"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="19"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
@@ -1848,45 +1860,63 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="30"/>
-      <c r="B62" s="34" t="s">
+      <c r="A62" s="21"/>
+      <c r="B62" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="39"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="7"/>
+      <c r="A63" s="22">
+        <v>46034</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="19"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="8"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="19"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="8"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="19"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="8"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="19"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="16"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="19"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="2" t="s">
         <v>9</v>
       </c>
@@ -1895,47 +1925,49 @@
       </c>
       <c r="D68" s="9">
         <f>SUM(D63:D67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="19"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="16"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="20"/>
+      <c r="B69" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="D69" s="15"/>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="29"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="24"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="19"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="16"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="19"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="16"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="19"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="16"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="19"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="16"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="15"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="19"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="2" t="s">
         <v>9</v>
       </c>
@@ -1948,43 +1980,43 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="30"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="27"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="26"/>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="29"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="24"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="19"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="16"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="19"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="16"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="19"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="16"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="19"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="16"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="19"/>
+      <c r="A82" s="20"/>
       <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
@@ -1997,10 +2029,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="30"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="27"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="26"/>
     </row>
     <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="11"/>
@@ -2010,35 +2042,63 @@
       </c>
       <c r="D84" s="12">
         <f>D11+D18+D25+D33+D40+D47+D54+D61+D68+D75+D82</f>
-        <v>37</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:D19"/>
@@ -2055,52 +2115,24 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B67:C67"/>
     <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11 D27:D33">
     <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Terminé">
